--- a/testFile/case/detailCase.xlsx
+++ b/testFile/case/detailCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729F0AF-C970-C244-921C-E72F4EE67C6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA8019-B20D-444D-A88C-E9014654CF51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="6100" windowWidth="24880" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testFile/case/detailCase.xlsx
+++ b/testFile/case/detailCase.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA8019-B20D-444D-A88C-E9014654CF51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC5A8D-45B3-2F4F-8726-A93DEE5A99CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="6100" windowWidth="24880" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="3240" windowWidth="24880" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDetail" sheetId="1" r:id="rId1"/>
+    <sheet name="listInvolvedUsers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>case_name</t>
   </si>
@@ -55,15 +56,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>topics_roles_dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'content': '🔥圈子主理人正开放申请，马上报名', 'link': 'https://h5.okjike.com/jkfe-topic-admin/#/rule?topicId=59df4567b48a2f001601c23f'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listInvolvedUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+		"type": "SECTION_HEADER",
+		"sectionViewType": "TOPIC_BULLETIN",
+		"title": "主理人开放申请中，马上报名",
+		"termsUrl": "https://h5.okjike.com/jkfe-topic-admin/#/rule?topicId=59df4567b48a2f001601c23f"
+	}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开放申请&amp;无主理人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +155,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -417,12 +446,12 @@
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="105" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,10 +468,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:6" ht="37" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -456,14 +485,79 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA87271C-7FFF-CA4C-8B1F-88A704DB566C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="19.6640625" style="4"/>
+    <col min="3" max="3" width="26.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="70.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="19.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="103" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>